--- a/InputData/fuels/MPIiFI/Max Perc Inc in Fuel Imports.xlsx
+++ b/InputData/fuels/MPIiFI/Max Perc Inc in Fuel Imports.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\fuels\MPIiFI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/fuels/mpiifi/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08659E9-3997-3F44-85F8-E2DF188C3977}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28185" windowHeight="12510"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28180" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -189,6 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,19 +470,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="9">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,42 +493,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -535,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -543,12 +548,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -655,7 +660,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -762,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -869,7 +874,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -976,7 +981,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1088,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1190,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1404,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1511,7 +1516,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1618,7 +1623,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1725,7 +1730,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1832,7 +1837,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1939,7 +1944,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2046,7 +2051,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -2153,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
@@ -2260,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -2367,7 +2372,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -2474,7 +2479,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -2581,7 +2586,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -2688,7 +2693,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -2795,7 +2800,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
